--- a/doc/_static/example-files/PMHC-4-0-intake.xlsx
+++ b/doc/_static/example-files/PMHC-4-0-intake.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="98">
   <si>
     <t>key</t>
   </si>
@@ -281,42 +281,27 @@
     <t>3+</t>
   </si>
   <si>
-    <t>total=3+</t>
-  </si>
-  <si>
     <t>IarDstIM01</t>
   </si>
   <si>
     <t>IarDstIM02</t>
   </si>
   <si>
-    <t>total=2</t>
-  </si>
-  <si>
     <t>IarDstIM03</t>
   </si>
   <si>
     <t>2+</t>
   </si>
   <si>
-    <t>total=2+</t>
-  </si>
-  <si>
     <t>IarDstIM04</t>
   </si>
   <si>
-    <t>total=5</t>
-  </si>
-  <si>
     <t>IarDstIM05</t>
   </si>
   <si>
     <t>IarDstIM06</t>
   </si>
   <si>
-    <t>total=1</t>
-  </si>
-  <si>
     <t>IarDstIM07</t>
   </si>
   <si>
@@ -324,9 +309,6 @@
   </si>
   <si>
     <t>4+</t>
-  </si>
-  <si>
-    <t>total=4+</t>
   </si>
   <si>
     <t>IarDstIM09</t>
@@ -1543,16 +1525,13 @@
       <c r="N2">
         <v>3</v>
       </c>
-      <c r="O2" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>54</v>
@@ -1590,16 +1569,13 @@
       <c r="N3">
         <v>9</v>
       </c>
-      <c r="O3" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
@@ -1637,16 +1613,13 @@
       <c r="N4">
         <v>2</v>
       </c>
-      <c r="O4" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
@@ -1679,13 +1652,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N5">
         <v>3</v>
-      </c>
-      <c r="O5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1693,7 +1663,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
@@ -1731,16 +1701,13 @@
       <c r="N6">
         <v>5</v>
       </c>
-      <c r="O6" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
         <v>62</v>
@@ -1773,13 +1740,10 @@
         <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N7">
         <v>3</v>
-      </c>
-      <c r="O7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1787,7 +1751,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>
@@ -1825,16 +1789,13 @@
       <c r="N8">
         <v>9</v>
       </c>
-      <c r="O8" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -1872,16 +1833,13 @@
       <c r="N9">
         <v>1</v>
       </c>
-      <c r="O9" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
         <v>68</v>
@@ -1914,21 +1872,18 @@
         <v>4</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N10">
         <v>4</v>
       </c>
-      <c r="O10" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -1965,9 +1920,6 @@
       </c>
       <c r="N11">
         <v>3</v>
-      </c>
-      <c r="O11" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/doc/_static/example-files/PMHC-4-0-intake.xlsx
+++ b/doc/_static/example-files/PMHC-4-0-intake.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
   <si>
     <t>key</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>date_client_contacted_intake</t>
-  </si>
-  <si>
-    <t>intake_funding_source</t>
   </si>
   <si>
     <t>suicide_referral_flag</t>
@@ -959,13 +956,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1008,16 +1005,13 @@
       <c r="N1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -1041,24 +1035,21 @@
         <v>27072021</v>
       </c>
       <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
         <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
       </c>
       <c r="M2" t="s">
         <v>52</v>
       </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1082,24 +1073,21 @@
         <v>20062021</v>
       </c>
       <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
       </c>
       <c r="M3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>55</v>
-      </c>
-      <c r="N3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1123,24 +1111,21 @@
         <v>30082021</v>
       </c>
       <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>56</v>
       </c>
       <c r="M4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>57</v>
-      </c>
-      <c r="N4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1164,24 +1149,21 @@
         <v>30072021</v>
       </c>
       <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>58</v>
       </c>
       <c r="M5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>59</v>
-      </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1205,24 +1187,21 @@
         <v>1092021</v>
       </c>
       <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
         <v>9</v>
       </c>
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
       <c r="M6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>61</v>
-      </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1248,22 +1227,19 @@
       <c r="J7">
         <v>2</v>
       </c>
-      <c r="K7">
-        <v>2</v>
+      <c r="L7" t="s">
+        <v>62</v>
       </c>
       <c r="M7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>63</v>
-      </c>
-      <c r="N7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1289,22 +1265,19 @@
       <c r="J8">
         <v>2</v>
       </c>
-      <c r="K8">
-        <v>2</v>
+      <c r="L8" t="s">
+        <v>64</v>
       </c>
       <c r="M8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>65</v>
-      </c>
-      <c r="N8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1328,24 +1301,21 @@
         <v>21022021</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
         <v>2</v>
       </c>
+      <c r="L9" t="s">
+        <v>66</v>
+      </c>
       <c r="M9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>67</v>
-      </c>
-      <c r="N9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1369,24 +1339,21 @@
         <v>12102021</v>
       </c>
       <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10">
         <v>9</v>
       </c>
+      <c r="L10" t="s">
+        <v>68</v>
+      </c>
       <c r="M10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>69</v>
-      </c>
-      <c r="N10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1410,16 +1377,13 @@
         <v>12052021</v>
       </c>
       <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11">
         <v>9</v>
       </c>
+      <c r="L11" t="s">
+        <v>70</v>
+      </c>
       <c r="M11" t="s">
-        <v>71</v>
-      </c>
-      <c r="N11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1440,46 +1404,46 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
         <v>38</v>
       </c>
       <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>74</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>76</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>77</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>78</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>79</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>80</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>81</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>82</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>83</v>
-      </c>
-      <c r="O1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1487,10 +1451,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1520,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -1531,10 +1495,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1564,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N3">
         <v>9</v>
@@ -1575,10 +1539,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1619,10 +1583,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1652,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -1663,10 +1627,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1707,10 +1671,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1740,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -1751,10 +1715,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1795,10 +1759,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1839,10 +1803,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1872,7 +1836,7 @@
         <v>4</v>
       </c>
       <c r="M10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N10">
         <v>4</v>
@@ -1883,10 +1847,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1916,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N11">
         <v>3</v>

--- a/doc/_static/example-files/PMHC-4-0-intake.xlsx
+++ b/doc/_static/example-files/PMHC-4-0-intake.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="98">
   <si>
     <t>key</t>
   </si>
@@ -74,6 +74,15 @@
     <t>Example Intake Organisation</t>
   </si>
   <si>
+    <t>PHN999:Treatment01</t>
+  </si>
+  <si>
+    <t>Treatment01</t>
+  </si>
+  <si>
+    <t>Example Treatment Organisation</t>
+  </si>
+  <si>
     <t>client_key</t>
   </si>
   <si>
@@ -173,18 +182,12 @@
     <t>I400</t>
   </si>
   <si>
-    <t>99 15 2 14</t>
-  </si>
-  <si>
-    <t>PHN999:Treatment01</t>
+    <t>15 2 14</t>
   </si>
   <si>
     <t>I401</t>
   </si>
   <si>
-    <t>99 21</t>
-  </si>
-  <si>
     <t>I402</t>
   </si>
   <si>
@@ -212,7 +215,7 @@
     <t>I406</t>
   </si>
   <si>
-    <t>10 6 99 19</t>
+    <t>10 6 19</t>
   </si>
   <si>
     <t>I407</t>
@@ -677,7 +680,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -738,6 +741,32 @@
         <v>1072020</v>
       </c>
       <c r="I2">
+        <v>9099999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>42543098901</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1072020</v>
+      </c>
+      <c r="I3">
         <v>9099999</v>
       </c>
     </row>
@@ -759,34 +788,34 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -794,10 +823,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>1011940</v>
@@ -826,10 +855,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>14011940</v>
@@ -858,10 +887,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>27011940</v>
@@ -890,10 +919,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>9021940</v>
@@ -922,10 +951,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>22021940</v>
@@ -967,43 +996,43 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1011,10 +1040,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1037,11 +1066,14 @@
       <c r="J2">
         <v>9</v>
       </c>
+      <c r="K2">
+        <v>30072021</v>
+      </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1049,10 +1081,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1075,11 +1107,14 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
-        <v>54</v>
+      <c r="K3">
+        <v>25062021</v>
+      </c>
+      <c r="L3">
+        <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1087,10 +1122,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1113,11 +1148,14 @@
       <c r="J4">
         <v>1</v>
       </c>
+      <c r="K4">
+        <v>4092021</v>
+      </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1125,10 +1163,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1151,11 +1189,14 @@
       <c r="J5">
         <v>1</v>
       </c>
+      <c r="K5">
+        <v>5082021</v>
+      </c>
       <c r="L5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M5" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1163,10 +1204,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1189,11 +1230,14 @@
       <c r="J6">
         <v>9</v>
       </c>
+      <c r="K6">
+        <v>1092021</v>
+      </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1201,16 +1245,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>17032020</v>
+        <v>17032021</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -1222,16 +1266,19 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>17032020</v>
+        <v>17082021</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
+      <c r="K7">
+        <v>18082021</v>
+      </c>
       <c r="L7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1239,10 +1286,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1254,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="H8">
         <v>98</v>
@@ -1265,11 +1312,14 @@
       <c r="J8">
         <v>2</v>
       </c>
+      <c r="K8">
+        <v>5092021</v>
+      </c>
       <c r="L8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M8" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1277,10 +1327,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1303,11 +1353,14 @@
       <c r="J9">
         <v>2</v>
       </c>
+      <c r="K9">
+        <v>21022021</v>
+      </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M9" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1315,10 +1368,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1341,11 +1394,14 @@
       <c r="J10">
         <v>9</v>
       </c>
+      <c r="K10">
+        <v>12102021</v>
+      </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M10" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1353,10 +1409,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1379,11 +1435,14 @@
       <c r="J11">
         <v>9</v>
       </c>
+      <c r="K11">
+        <v>12052021</v>
+      </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1404,46 +1463,46 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1451,10 +1510,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1484,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -1495,10 +1554,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1528,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3">
         <v>9</v>
@@ -1539,10 +1598,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1583,10 +1642,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1616,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -1627,10 +1686,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1671,10 +1730,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1704,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -1715,10 +1774,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1759,10 +1818,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1803,10 +1862,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1836,7 +1895,7 @@
         <v>4</v>
       </c>
       <c r="M10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N10">
         <v>4</v>
@@ -1847,10 +1906,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1880,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N11">
         <v>3</v>
